--- a/data/long_razon/P23_9-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_9-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-24,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 57,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,41; -3,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 73,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 23,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 52,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 4,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,32%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 47,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 5,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,7; 113,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 3,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,19; 65,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,02; -3,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>139,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-46,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-33,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,57; 334,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-66,9; -16,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 128,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 23,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,74; 156,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,66; -8,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 54,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,2; -12,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,68; 74,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 4,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,31; 57,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; -7,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_9-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_9-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1379289569756461</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.281183517851833</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.09115691297868372</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4528782635367819</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.03067710074463515</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.4473735242979361</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2819205646752365</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1351627698064015</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.300193730685196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.1547067833508275</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4370074072863236</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3429184469296008</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1898277256138975</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.135858456321449</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5676207102570959</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.05581864878485813</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2623822655079737</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4338974732317403</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.4765459238469951</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.08598015725874987</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.4520481636922278</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.8291949930252106</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.225579468569851</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.2908163562827028</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5192101788912181</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.004288506640720287</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.08072096600967654</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1320550246981319</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1839267706483085</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.4112287686081312</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6445382156645786</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1809961551750533</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.2829945186004492</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3607468833897539</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1824832126931957</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3477128842973055</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1594671224326352</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3728441739673196</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5850309210143259</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.2823709457941144</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3538091420273557</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4446805719566702</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.08869229073289252</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3103166720945593</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.4784767272156206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.5275102174652242</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06616244569624088</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.07873945781132943</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.210318859060727</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.004903762969306566</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.07585151918581717</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.6498112744809453</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.04044529828076601</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.1849167130676063</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.395383178630415</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5004216310205833</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3830919867353385</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.3643197245594615</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2175166612453866</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.2764382145998472</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.812970530606219</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.3792331388353664</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.335488390014303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.404428043977333</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.6820719731169484</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7591985476069556</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1449045594619467</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.4765525209290754</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.5975298197005694</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.3323081374663966</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5693761045305753</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5965670724946326</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.163275707444116</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.1738918884850063</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.2595096634239802</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.146493455036688</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.1994368927705134</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2281661913320308</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.524820893616138</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.1525059012452616</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.02248324548693802</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.2478238624043393</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2777236680962773</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.2646632744021074</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.5113578540607912</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.08318210614959594</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.3726452566720588</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3703213334852514</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1858839715662814</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.3224959575758928</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.0359862202392586</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3823841922665761</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.422837614612124</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3123935776906444</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1901883424907884</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.479042137892059</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2132924176024904</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2734879492376376</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.4097999976706722</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.4922453978388775</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.1411750590341772</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.01194237203587453</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7995014568359047</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.0505327707605295</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.2537912206555298</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.5516234069134477</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.09836290613240936</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.1979779868132172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
